--- a/Interne Dokumente/Sprint Backlog.xlsx
+++ b/Interne Dokumente/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa59a3899666ba82/Dokumentumok/GitHub/Bibliotheksverwaltungsprogramm/Interne Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{753A3E8E-D56E-4518-8CA8-57ADD494E465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6C2FF853-91C8-444D-B2DA-F4E1BA631402}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{753A3E8E-D56E-4518-8CA8-57ADD494E465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3C90A826-CF39-43ED-94E7-5220C1F259E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1530" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agiles Produkt-Backlog" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -836,13 +836,13 @@
         <v>44246</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="15"/>

--- a/Interne Dokumente/Sprint Backlog.xlsx
+++ b/Interne Dokumente/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa59a3899666ba82/Dokumentumok/GitHub/Bibliotheksverwaltungsprogramm/Interne Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{753A3E8E-D56E-4518-8CA8-57ADD494E465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3C90A826-CF39-43ED-94E7-5220C1F259E8}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{753A3E8E-D56E-4518-8CA8-57ADD494E465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{61B357B9-296F-4F62-92C0-A4634E3D2EA1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1530" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="15"/>
@@ -944,13 +944,13 @@
         <v>44248</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="18" t="s">

--- a/Interne Dokumente/Sprint Backlog.xlsx
+++ b/Interne Dokumente/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa59a3899666ba82/Dokumentumok/GitHub/Bibliotheksverwaltungsprogramm/Interne Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{753A3E8E-D56E-4518-8CA8-57ADD494E465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{61B357B9-296F-4F62-92C0-A4634E3D2EA1}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{753A3E8E-D56E-4518-8CA8-57ADD494E465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82C9FB84-2EDA-4C70-B5A0-C889464CAC5A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1530" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1050" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agiles Produkt-Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>AGILES PRODUKT-BACKLOG</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>Sprint  1</t>
+  </si>
+  <si>
+    <t>Kunde Tabelle</t>
+  </si>
+  <si>
+    <t>Sprint  2</t>
+  </si>
+  <si>
+    <t>Verleihschein Tabelle</t>
+  </si>
+  <si>
+    <t>Kosten Tabelle+Csv</t>
+  </si>
+  <si>
+    <t>Sandor  Debnar</t>
   </si>
 </sst>
 </file>
@@ -667,7 +682,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -888,7 +903,7 @@
         <v>44251</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>13</v>
@@ -933,9 +948,6 @@
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="14">
         <v>44247</v>
@@ -1021,15 +1033,33 @@
     </row>
     <row r="8" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="14">
+        <v>44257</v>
+      </c>
+      <c r="G8" s="14">
+        <v>44264</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1056,14 +1086,30 @@
     <row r="9" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14">
+        <v>44257</v>
+      </c>
+      <c r="G9" s="14">
+        <v>44264</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1090,14 +1136,30 @@
     <row r="10" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="14">
+        <v>44257</v>
+      </c>
+      <c r="G10" s="14">
+        <v>44264</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
